--- a/new_results/3.5_no_notes.xlsx
+++ b/new_results/3.5_no_notes.xlsx
@@ -478,11 +478,7 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Zz</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zz</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -500,29 +496,29 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Zz</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>zZ</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Zz</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Vv</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -530,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1H12.0-</t>
+          <t>LH12.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -550,39 +546,35 @@
           <t>5.04</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Ru</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>See</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>Dy</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>1.1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>a</t>
         </is>
       </c>
     </row>
@@ -606,39 +598,47 @@
           <t>23</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AVA</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Ho</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>(0.26)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -670,37 +670,37 @@
           <t>5.67</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Pd</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Er</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -732,37 +732,37 @@
           <t>5.39</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Ag</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>(0.94)</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>(0.00)</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -791,40 +791,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+          <t>7.5]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Cd</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Yb</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>1.08</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -856,37 +856,37 @@
           <t>4.92</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>In</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>(1.66)</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>Lu</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>(0.76)</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -920,35 +920,39 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Sn</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Hf</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>Ht</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -980,34 +984,30 @@
           <t>4.21</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
+          <t>o-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Sb</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Ta</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>(1.11)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>j</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1042,28 +1042,28 @@
           <t>4.60</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Te</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Ww</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1100,26 +1100,22 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Re</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1.45</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1155,31 +1151,31 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>3.4t</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>xe</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Xe</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Os</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1212,37 +1208,37 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Cs</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>{r</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>Ir</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>1.35</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1250,7 +1246,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1274,33 +1270,33 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Ba</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Pt</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1332,37 +1328,37 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>La</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Au</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>(1.01)</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1370,7 +1366,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1388,47 +1384,39 @@
           <t>36</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kr</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Ce</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Hg</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>(0.9)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>(0.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1441,12 +1429,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ss</t>
+          <t>S)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.221</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1459,34 +1447,42 @@
           <t>Rb</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Pr</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>0.71</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Tl</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1504,7 +1500,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1522,37 +1518,37 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
+          <t>6D</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>Nd</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>Pb</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1584,37 +1580,37 @@
           <t>2.24</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Sm</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>sm</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Bi</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>027</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1642,7 +1638,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZI</t>
+          <t>ZY</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1650,32 +1646,32 @@
           <t>2.60</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Eu</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1699,42 +1695,50 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>4l</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nb</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Gd</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>92.U</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>(--0.47)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>(x0.47)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1770,22 +1774,22 @@
           <t>1.92</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Tb</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>(-0.1)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>(0.1)</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
